--- a/Docs/python/Datasheet_Template_test.xlsx
+++ b/Docs/python/Datasheet_Template_test.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
